--- a/ep/ep/export/flourish/Joint_party_party.xlsx
+++ b/ep/ep/export/flourish/Joint_party_party.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="53">
   <si>
     <t>name1</t>
   </si>
@@ -118,17 +118,68 @@
     <t>PSD</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
   </si>
   <si>
     <t>UNPR</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/dk.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/hun.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/egyutt.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/fdgr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/fidesz.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/jobbik.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/lmp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/mszp.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pmp.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pnl.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/pntcd.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/prm.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/psd.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/rmdsz.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/unpr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/aldero.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +194,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,16 +235,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,6 +618,9 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O2">
         <v>0.985</v>
       </c>
@@ -583,6 +650,9 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H3">
         <v>0.895</v>
       </c>
@@ -600,6 +670,9 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O4">
         <v>0.725</v>
       </c>
@@ -629,6 +702,9 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H5">
         <v>0.659</v>
       </c>
@@ -643,6 +719,9 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H6">
         <v>0.715</v>
       </c>
@@ -675,6 +754,9 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O7">
         <v>0.601</v>
       </c>
@@ -704,6 +786,9 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O8">
         <v>0.721</v>
       </c>
@@ -733,6 +818,9 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H9">
         <v>0.722</v>
       </c>
@@ -765,6 +853,9 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H10">
         <v>0.542</v>
       </c>
@@ -797,6 +888,9 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O11">
         <v>0.819</v>
       </c>
@@ -823,6 +917,9 @@
       <c r="C12" t="s">
         <v>30</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H12">
         <v>0.846</v>
       </c>
@@ -855,6 +952,9 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O13">
         <v>0.78</v>
       </c>
@@ -869,6 +969,9 @@
       <c r="C14" t="s">
         <v>32</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H14">
         <v>0.57</v>
       </c>
@@ -886,6 +989,9 @@
       <c r="C15" t="s">
         <v>33</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H15">
         <v>0.759</v>
       </c>
@@ -918,6 +1024,9 @@
       <c r="C16" t="s">
         <v>34</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H16">
         <v>0.721</v>
       </c>
@@ -950,6 +1059,9 @@
       <c r="C17" t="s">
         <v>35</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O17">
         <v>0.992</v>
       </c>
@@ -970,6 +1082,9 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O18">
         <v>0.985</v>
       </c>
@@ -999,6 +1114,9 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O19">
         <v>0.713</v>
       </c>
@@ -1028,6 +1146,9 @@
       <c r="C20" t="s">
         <v>24</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O20">
         <v>0.857</v>
       </c>
@@ -1057,6 +1178,9 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O21">
         <v>0.425</v>
       </c>
@@ -1086,6 +1210,9 @@
       <c r="C22" t="s">
         <v>26</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O22">
         <v>0.716</v>
       </c>
@@ -1115,6 +1242,9 @@
       <c r="C23" t="s">
         <v>27</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O23">
         <v>0.977</v>
       </c>
@@ -1144,6 +1274,9 @@
       <c r="C24" t="s">
         <v>28</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O24">
         <v>0.843</v>
       </c>
@@ -1173,6 +1306,9 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O25">
         <v>0.859</v>
       </c>
@@ -1199,6 +1335,9 @@
       <c r="C26" t="s">
         <v>30</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O26">
         <v>0.846</v>
       </c>
@@ -1228,6 +1367,9 @@
       <c r="C27" t="s">
         <v>33</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O27">
         <v>0.986</v>
       </c>
@@ -1257,6 +1399,9 @@
       <c r="C28" t="s">
         <v>34</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="O28">
         <v>0.859</v>
       </c>
@@ -1286,6 +1431,9 @@
       <c r="C29" t="s">
         <v>35</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O29">
         <v>0.995</v>
       </c>
@@ -1306,6 +1454,9 @@
       <c r="C30" t="s">
         <v>19</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H30">
         <v>0.895</v>
       </c>
@@ -1323,6 +1474,9 @@
       <c r="C31" t="s">
         <v>23</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H31">
         <v>0.722</v>
       </c>
@@ -1337,6 +1491,9 @@
       <c r="C32" t="s">
         <v>24</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E32">
         <v>0.825</v>
       </c>
@@ -1381,6 +1538,9 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J33">
         <v>0.525</v>
       </c>
@@ -1410,6 +1570,9 @@
       <c r="C34" t="s">
         <v>27</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E34">
         <v>0.715</v>
       </c>
@@ -1454,6 +1617,9 @@
       <c r="C35" t="s">
         <v>28</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H35">
         <v>0.657</v>
       </c>
@@ -1477,6 +1643,9 @@
       <c r="C36" t="s">
         <v>29</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O36">
         <v>0.657</v>
       </c>
@@ -1491,6 +1660,9 @@
       <c r="C37" t="s">
         <v>30</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H37">
         <v>0.825</v>
       </c>
@@ -1526,6 +1698,9 @@
       <c r="C38" t="s">
         <v>32</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H38">
         <v>0.589</v>
       </c>
@@ -1558,6 +1733,9 @@
       <c r="C39" t="s">
         <v>33</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H39">
         <v>0.744</v>
       </c>
@@ -1593,6 +1771,9 @@
       <c r="C40" t="s">
         <v>34</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H40">
         <v>0.76</v>
       </c>
@@ -1628,6 +1809,9 @@
       <c r="C41" t="s">
         <v>19</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O41">
         <v>0.725</v>
       </c>
@@ -1657,6 +1841,9 @@
       <c r="C42" t="s">
         <v>20</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O42">
         <v>0.713</v>
       </c>
@@ -1686,6 +1873,9 @@
       <c r="C43" t="s">
         <v>24</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O43">
         <v>0.577</v>
       </c>
@@ -1715,6 +1905,9 @@
       <c r="C44" t="s">
         <v>25</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O44">
         <v>0.572</v>
       </c>
@@ -1744,6 +1937,9 @@
       <c r="C45" t="s">
         <v>26</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O45">
         <v>1</v>
       </c>
@@ -1773,6 +1969,9 @@
       <c r="C46" t="s">
         <v>27</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O46">
         <v>0.74</v>
       </c>
@@ -1802,6 +2001,9 @@
       <c r="C47" t="s">
         <v>28</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O47">
         <v>0.59</v>
       </c>
@@ -1831,6 +2033,9 @@
       <c r="C48" t="s">
         <v>29</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O48">
         <v>0.5629999999999999</v>
       </c>
@@ -1857,6 +2062,9 @@
       <c r="C49" t="s">
         <v>30</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O49">
         <v>0.5600000000000001</v>
       </c>
@@ -1886,6 +2094,9 @@
       <c r="C50" t="s">
         <v>33</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O50">
         <v>0.713</v>
       </c>
@@ -1915,6 +2126,9 @@
       <c r="C51" t="s">
         <v>34</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="O51">
         <v>0.556</v>
       </c>
@@ -1944,6 +2158,9 @@
       <c r="C52" t="s">
         <v>35</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O52">
         <v>0.722</v>
       </c>
@@ -1964,6 +2181,9 @@
       <c r="C53" t="s">
         <v>19</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H53">
         <v>0.659</v>
       </c>
@@ -1978,6 +2198,9 @@
       <c r="C54" t="s">
         <v>21</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H54">
         <v>0.722</v>
       </c>
@@ -1992,6 +2215,9 @@
       <c r="C55" t="s">
         <v>24</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H55">
         <v>0.838</v>
       </c>
@@ -2006,6 +2232,9 @@
       <c r="C56" t="s">
         <v>27</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H56">
         <v>0.544</v>
       </c>
@@ -2020,6 +2249,9 @@
       <c r="C57" t="s">
         <v>28</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H57">
         <v>0.578</v>
       </c>
@@ -2034,6 +2266,9 @@
       <c r="C58" t="s">
         <v>30</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H58">
         <v>0.769</v>
       </c>
@@ -2048,6 +2283,9 @@
       <c r="C59" t="s">
         <v>32</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H59">
         <v>0.617</v>
       </c>
@@ -2062,6 +2300,9 @@
       <c r="C60" t="s">
         <v>33</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H60">
         <v>0.542</v>
       </c>
@@ -2076,6 +2317,9 @@
       <c r="C61" t="s">
         <v>34</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H61">
         <v>0.8129999999999999</v>
       </c>
@@ -2090,6 +2334,9 @@
       <c r="C62" t="s">
         <v>19</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H62">
         <v>0.715</v>
       </c>
@@ -2122,6 +2369,9 @@
       <c r="C63" t="s">
         <v>20</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O63">
         <v>0.857</v>
       </c>
@@ -2151,6 +2401,9 @@
       <c r="C64" t="s">
         <v>21</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E64">
         <v>0.825</v>
       </c>
@@ -2195,6 +2448,9 @@
       <c r="C65" t="s">
         <v>22</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O65">
         <v>0.577</v>
       </c>
@@ -2224,6 +2480,9 @@
       <c r="C66" t="s">
         <v>23</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H66">
         <v>0.838</v>
       </c>
@@ -2238,6 +2497,9 @@
       <c r="C67" t="s">
         <v>25</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J67">
         <v>0.496</v>
       </c>
@@ -2282,6 +2544,9 @@
       <c r="C68" t="s">
         <v>26</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O68">
         <v>0.5679999999999999</v>
       </c>
@@ -2311,6 +2576,9 @@
       <c r="C69" t="s">
         <v>27</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E69">
         <v>0.593</v>
       </c>
@@ -2370,6 +2638,9 @@
       <c r="C70" t="s">
         <v>28</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H70">
         <v>0.659</v>
       </c>
@@ -2411,6 +2682,9 @@
       <c r="C71" t="s">
         <v>29</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O71">
         <v>0.955</v>
       </c>
@@ -2437,6 +2711,9 @@
       <c r="C72" t="s">
         <v>30</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H72">
         <v>0.793</v>
       </c>
@@ -2487,6 +2764,9 @@
       <c r="C73" t="s">
         <v>31</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O73">
         <v>0.922</v>
       </c>
@@ -2501,6 +2781,9 @@
       <c r="C74" t="s">
         <v>32</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H74">
         <v>0.627</v>
       </c>
@@ -2533,6 +2816,9 @@
       <c r="C75" t="s">
         <v>33</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H75">
         <v>0.626</v>
       </c>
@@ -2583,6 +2869,9 @@
       <c r="C76" t="s">
         <v>34</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H76">
         <v>0.929</v>
       </c>
@@ -2633,6 +2922,9 @@
       <c r="C77" t="s">
         <v>35</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O77">
         <v>0.831</v>
       </c>
@@ -2653,6 +2945,9 @@
       <c r="C78" t="s">
         <v>19</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O78">
         <v>0.601</v>
       </c>
@@ -2682,6 +2977,9 @@
       <c r="C79" t="s">
         <v>20</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O79">
         <v>0.425</v>
       </c>
@@ -2711,6 +3009,9 @@
       <c r="C80" t="s">
         <v>21</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J80">
         <v>0.525</v>
       </c>
@@ -2740,6 +3041,9 @@
       <c r="C81" t="s">
         <v>22</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O81">
         <v>0.572</v>
       </c>
@@ -2769,6 +3073,9 @@
       <c r="C82" t="s">
         <v>24</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J82">
         <v>0.496</v>
       </c>
@@ -2813,6 +3120,9 @@
       <c r="C83" t="s">
         <v>26</v>
       </c>
+      <c r="D83" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O83">
         <v>0.59</v>
       </c>
@@ -2842,6 +3152,9 @@
       <c r="C84" t="s">
         <v>27</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J84">
         <v>0.414</v>
       </c>
@@ -2886,6 +3199,9 @@
       <c r="C85" t="s">
         <v>28</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J85">
         <v>0.5639999999999999</v>
       </c>
@@ -2921,6 +3237,9 @@
       <c r="C86" t="s">
         <v>29</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O86">
         <v>0.524</v>
       </c>
@@ -2947,6 +3266,9 @@
       <c r="C87" t="s">
         <v>30</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="J87">
         <v>0.479</v>
       </c>
@@ -2991,6 +3313,9 @@
       <c r="C88" t="s">
         <v>31</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O88">
         <v>0.575</v>
       </c>
@@ -3005,6 +3330,9 @@
       <c r="C89" t="s">
         <v>32</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J89">
         <v>0.443</v>
       </c>
@@ -3034,6 +3362,9 @@
       <c r="C90" t="s">
         <v>33</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="J90">
         <v>0.424</v>
       </c>
@@ -3078,6 +3409,9 @@
       <c r="C91" t="s">
         <v>34</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J91">
         <v>0.457</v>
       </c>
@@ -3122,6 +3456,9 @@
       <c r="C92" t="s">
         <v>35</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O92">
         <v>0.453</v>
       </c>
@@ -3142,6 +3479,9 @@
       <c r="C93" t="s">
         <v>19</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O93">
         <v>0.721</v>
       </c>
@@ -3171,6 +3511,9 @@
       <c r="C94" t="s">
         <v>20</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O94">
         <v>0.716</v>
       </c>
@@ -3200,6 +3543,9 @@
       <c r="C95" t="s">
         <v>22</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O95">
         <v>1</v>
       </c>
@@ -3229,6 +3575,9 @@
       <c r="C96" t="s">
         <v>24</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O96">
         <v>0.5679999999999999</v>
       </c>
@@ -3258,6 +3607,9 @@
       <c r="C97" t="s">
         <v>25</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O97">
         <v>0.59</v>
       </c>
@@ -3287,6 +3639,9 @@
       <c r="C98" t="s">
         <v>27</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O98">
         <v>0.741</v>
       </c>
@@ -3316,6 +3671,9 @@
       <c r="C99" t="s">
         <v>28</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O99">
         <v>0.59</v>
       </c>
@@ -3345,6 +3703,9 @@
       <c r="C100" t="s">
         <v>29</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O100">
         <v>0.556</v>
       </c>
@@ -3371,6 +3732,9 @@
       <c r="C101" t="s">
         <v>30</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O101">
         <v>0.548</v>
       </c>
@@ -3400,6 +3764,9 @@
       <c r="C102" t="s">
         <v>33</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O102">
         <v>0.714</v>
       </c>
@@ -3429,6 +3796,9 @@
       <c r="C103" t="s">
         <v>34</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="O103">
         <v>0.548</v>
       </c>
@@ -3458,6 +3828,9 @@
       <c r="C104" t="s">
         <v>35</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O104">
         <v>0.723</v>
       </c>
@@ -3478,6 +3851,9 @@
       <c r="C105" t="s">
         <v>19</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H105">
         <v>0.722</v>
       </c>
@@ -3510,6 +3886,9 @@
       <c r="C106" t="s">
         <v>20</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O106">
         <v>0.977</v>
       </c>
@@ -3539,6 +3918,9 @@
       <c r="C107" t="s">
         <v>21</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E107">
         <v>0.715</v>
       </c>
@@ -3583,6 +3965,9 @@
       <c r="C108" t="s">
         <v>22</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O108">
         <v>0.74</v>
       </c>
@@ -3612,6 +3997,9 @@
       <c r="C109" t="s">
         <v>23</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H109">
         <v>0.544</v>
       </c>
@@ -3626,6 +4014,9 @@
       <c r="C110" t="s">
         <v>24</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E110">
         <v>0.593</v>
       </c>
@@ -3685,6 +4076,9 @@
       <c r="C111" t="s">
         <v>25</v>
       </c>
+      <c r="D111" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J111">
         <v>0.414</v>
       </c>
@@ -3729,6 +4123,9 @@
       <c r="C112" t="s">
         <v>26</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O112">
         <v>0.741</v>
       </c>
@@ -3758,6 +4155,9 @@
       <c r="C113" t="s">
         <v>28</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H113">
         <v>0.679</v>
       </c>
@@ -3799,6 +4199,9 @@
       <c r="C114" t="s">
         <v>29</v>
       </c>
+      <c r="D114" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O114">
         <v>0.792</v>
       </c>
@@ -3825,6 +4228,9 @@
       <c r="C115" t="s">
         <v>30</v>
       </c>
+      <c r="D115" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H115">
         <v>0.659</v>
       </c>
@@ -3875,6 +4281,9 @@
       <c r="C116" t="s">
         <v>31</v>
       </c>
+      <c r="D116" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O116">
         <v>0.75</v>
       </c>
@@ -3889,6 +4298,9 @@
       <c r="C117" t="s">
         <v>32</v>
       </c>
+      <c r="D117" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H117">
         <v>0.5669999999999999</v>
       </c>
@@ -3921,6 +4333,9 @@
       <c r="C118" t="s">
         <v>33</v>
       </c>
+      <c r="D118" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H118">
         <v>0.913</v>
       </c>
@@ -3971,6 +4386,9 @@
       <c r="C119" t="s">
         <v>34</v>
       </c>
+      <c r="D119" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H119">
         <v>0.603</v>
       </c>
@@ -4021,6 +4439,9 @@
       <c r="C120" t="s">
         <v>35</v>
       </c>
+      <c r="D120" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O120">
         <v>0.981</v>
       </c>
@@ -4041,6 +4462,9 @@
       <c r="C121" t="s">
         <v>19</v>
       </c>
+      <c r="D121" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H121">
         <v>0.542</v>
       </c>
@@ -4073,6 +4497,9 @@
       <c r="C122" t="s">
         <v>20</v>
       </c>
+      <c r="D122" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O122">
         <v>0.843</v>
       </c>
@@ -4102,6 +4529,9 @@
       <c r="C123" t="s">
         <v>21</v>
       </c>
+      <c r="D123" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H123">
         <v>0.657</v>
       </c>
@@ -4125,6 +4555,9 @@
       <c r="C124" t="s">
         <v>22</v>
       </c>
+      <c r="D124" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O124">
         <v>0.59</v>
       </c>
@@ -4154,6 +4587,9 @@
       <c r="C125" t="s">
         <v>23</v>
       </c>
+      <c r="D125" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H125">
         <v>0.578</v>
       </c>
@@ -4168,6 +4604,9 @@
       <c r="C126" t="s">
         <v>24</v>
       </c>
+      <c r="D126" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H126">
         <v>0.659</v>
       </c>
@@ -4209,6 +4648,9 @@
       <c r="C127" t="s">
         <v>25</v>
       </c>
+      <c r="D127" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J127">
         <v>0.5639999999999999</v>
       </c>
@@ -4244,6 +4686,9 @@
       <c r="C128" t="s">
         <v>26</v>
       </c>
+      <c r="D128" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O128">
         <v>0.59</v>
       </c>
@@ -4273,6 +4718,9 @@
       <c r="C129" t="s">
         <v>27</v>
       </c>
+      <c r="D129" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H129">
         <v>0.679</v>
       </c>
@@ -4314,6 +4762,9 @@
       <c r="C130" t="s">
         <v>29</v>
       </c>
+      <c r="D130" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O130">
         <v>0.915</v>
       </c>
@@ -4340,6 +4791,9 @@
       <c r="C131" t="s">
         <v>30</v>
       </c>
+      <c r="D131" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H131">
         <v>0.629</v>
       </c>
@@ -4381,6 +4835,9 @@
       <c r="C132" t="s">
         <v>31</v>
       </c>
+      <c r="D132" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O132">
         <v>0.929</v>
       </c>
@@ -4395,6 +4852,9 @@
       <c r="C133" t="s">
         <v>32</v>
       </c>
+      <c r="D133" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H133">
         <v>0.721</v>
       </c>
@@ -4418,6 +4878,9 @@
       <c r="C134" t="s">
         <v>33</v>
       </c>
+      <c r="D134" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H134">
         <v>0.67</v>
       </c>
@@ -4459,6 +4922,9 @@
       <c r="C135" t="s">
         <v>34</v>
       </c>
+      <c r="D135" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H135">
         <v>0.525</v>
       </c>
@@ -4500,6 +4966,9 @@
       <c r="C136" t="s">
         <v>35</v>
       </c>
+      <c r="D136" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O136">
         <v>0.802</v>
       </c>
@@ -4520,6 +4989,9 @@
       <c r="C137" t="s">
         <v>19</v>
       </c>
+      <c r="D137" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O137">
         <v>0.819</v>
       </c>
@@ -4546,6 +5018,9 @@
       <c r="C138" t="s">
         <v>20</v>
       </c>
+      <c r="D138" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O138">
         <v>0.859</v>
       </c>
@@ -4572,6 +5047,9 @@
       <c r="C139" t="s">
         <v>21</v>
       </c>
+      <c r="D139" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="O139">
         <v>0.657</v>
       </c>
@@ -4586,6 +5064,9 @@
       <c r="C140" t="s">
         <v>22</v>
       </c>
+      <c r="D140" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O140">
         <v>0.5629999999999999</v>
       </c>
@@ -4612,6 +5093,9 @@
       <c r="C141" t="s">
         <v>24</v>
       </c>
+      <c r="D141" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O141">
         <v>0.955</v>
       </c>
@@ -4638,6 +5122,9 @@
       <c r="C142" t="s">
         <v>25</v>
       </c>
+      <c r="D142" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O142">
         <v>0.524</v>
       </c>
@@ -4664,6 +5151,9 @@
       <c r="C143" t="s">
         <v>26</v>
       </c>
+      <c r="D143" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O143">
         <v>0.556</v>
       </c>
@@ -4690,6 +5180,9 @@
       <c r="C144" t="s">
         <v>27</v>
       </c>
+      <c r="D144" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O144">
         <v>0.792</v>
       </c>
@@ -4716,6 +5209,9 @@
       <c r="C145" t="s">
         <v>28</v>
       </c>
+      <c r="D145" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O145">
         <v>0.915</v>
       </c>
@@ -4742,6 +5238,9 @@
       <c r="C146" t="s">
         <v>30</v>
       </c>
+      <c r="D146" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O146">
         <v>0.928</v>
       </c>
@@ -4768,6 +5267,9 @@
       <c r="C147" t="s">
         <v>31</v>
       </c>
+      <c r="D147" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O147">
         <v>0.966</v>
       </c>
@@ -4782,6 +5284,9 @@
       <c r="C148" t="s">
         <v>32</v>
       </c>
+      <c r="D148" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O148">
         <v>0.908</v>
       </c>
@@ -4796,6 +5301,9 @@
       <c r="C149" t="s">
         <v>33</v>
       </c>
+      <c r="D149" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O149">
         <v>0.8179999999999999</v>
       </c>
@@ -4822,6 +5330,9 @@
       <c r="C150" t="s">
         <v>34</v>
       </c>
+      <c r="D150" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="O150">
         <v>0.963</v>
       </c>
@@ -4848,6 +5359,9 @@
       <c r="C151" t="s">
         <v>35</v>
       </c>
+      <c r="D151" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O151">
         <v>0.827</v>
       </c>
@@ -4868,6 +5382,9 @@
       <c r="C152" t="s">
         <v>19</v>
       </c>
+      <c r="D152" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H152">
         <v>0.846</v>
       </c>
@@ -4900,6 +5417,9 @@
       <c r="C153" t="s">
         <v>20</v>
       </c>
+      <c r="D153" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O153">
         <v>0.846</v>
       </c>
@@ -4929,6 +5449,9 @@
       <c r="C154" t="s">
         <v>21</v>
       </c>
+      <c r="D154" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H154">
         <v>0.825</v>
       </c>
@@ -4964,6 +5487,9 @@
       <c r="C155" t="s">
         <v>22</v>
       </c>
+      <c r="D155" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O155">
         <v>0.5600000000000001</v>
       </c>
@@ -4993,6 +5519,9 @@
       <c r="C156" t="s">
         <v>23</v>
       </c>
+      <c r="D156" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H156">
         <v>0.769</v>
       </c>
@@ -5007,6 +5536,9 @@
       <c r="C157" t="s">
         <v>24</v>
       </c>
+      <c r="D157" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H157">
         <v>0.793</v>
       </c>
@@ -5057,6 +5589,9 @@
       <c r="C158" t="s">
         <v>25</v>
       </c>
+      <c r="D158" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J158">
         <v>0.479</v>
       </c>
@@ -5101,6 +5636,9 @@
       <c r="C159" t="s">
         <v>26</v>
       </c>
+      <c r="D159" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O159">
         <v>0.548</v>
       </c>
@@ -5130,6 +5668,9 @@
       <c r="C160" t="s">
         <v>27</v>
       </c>
+      <c r="D160" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H160">
         <v>0.659</v>
       </c>
@@ -5180,6 +5721,9 @@
       <c r="C161" t="s">
         <v>28</v>
       </c>
+      <c r="D161" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H161">
         <v>0.629</v>
       </c>
@@ -5221,6 +5765,9 @@
       <c r="C162" t="s">
         <v>29</v>
       </c>
+      <c r="D162" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O162">
         <v>0.928</v>
       </c>
@@ -5247,6 +5794,9 @@
       <c r="C163" t="s">
         <v>31</v>
       </c>
+      <c r="D163" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O163">
         <v>0.902</v>
       </c>
@@ -5261,6 +5811,9 @@
       <c r="C164" t="s">
         <v>32</v>
       </c>
+      <c r="D164" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H164">
         <v>0.586</v>
       </c>
@@ -5293,6 +5846,9 @@
       <c r="C165" t="s">
         <v>33</v>
       </c>
+      <c r="D165" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H165">
         <v>0.7</v>
       </c>
@@ -5343,6 +5899,9 @@
       <c r="C166" t="s">
         <v>34</v>
       </c>
+      <c r="D166" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H166">
         <v>0.79</v>
       </c>
@@ -5393,6 +5952,9 @@
       <c r="C167" t="s">
         <v>35</v>
       </c>
+      <c r="D167" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O167">
         <v>0.8120000000000001</v>
       </c>
@@ -5413,6 +5975,9 @@
       <c r="C168" t="s">
         <v>19</v>
       </c>
+      <c r="D168" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O168">
         <v>0.78</v>
       </c>
@@ -5427,6 +5992,9 @@
       <c r="C169" t="s">
         <v>24</v>
       </c>
+      <c r="D169" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O169">
         <v>0.922</v>
       </c>
@@ -5441,6 +6009,9 @@
       <c r="C170" t="s">
         <v>25</v>
       </c>
+      <c r="D170" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O170">
         <v>0.575</v>
       </c>
@@ -5455,6 +6026,9 @@
       <c r="C171" t="s">
         <v>27</v>
       </c>
+      <c r="D171" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O171">
         <v>0.75</v>
       </c>
@@ -5469,6 +6043,9 @@
       <c r="C172" t="s">
         <v>28</v>
       </c>
+      <c r="D172" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O172">
         <v>0.929</v>
       </c>
@@ -5483,6 +6060,9 @@
       <c r="C173" t="s">
         <v>29</v>
       </c>
+      <c r="D173" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O173">
         <v>0.966</v>
       </c>
@@ -5497,6 +6077,9 @@
       <c r="C174" t="s">
         <v>30</v>
       </c>
+      <c r="D174" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O174">
         <v>0.902</v>
       </c>
@@ -5511,6 +6094,9 @@
       <c r="C175" t="s">
         <v>32</v>
       </c>
+      <c r="D175" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="O175">
         <v>0.883</v>
       </c>
@@ -5525,6 +6111,9 @@
       <c r="C176" t="s">
         <v>33</v>
       </c>
+      <c r="D176" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O176">
         <v>0.774</v>
       </c>
@@ -5539,6 +6128,9 @@
       <c r="C177" t="s">
         <v>34</v>
       </c>
+      <c r="D177" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="O177">
         <v>0.944</v>
       </c>
@@ -5553,6 +6145,9 @@
       <c r="C178" t="s">
         <v>19</v>
       </c>
+      <c r="D178" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H178">
         <v>0.57</v>
       </c>
@@ -5570,6 +6165,9 @@
       <c r="C179" t="s">
         <v>21</v>
       </c>
+      <c r="D179" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H179">
         <v>0.589</v>
       </c>
@@ -5602,6 +6200,9 @@
       <c r="C180" t="s">
         <v>23</v>
       </c>
+      <c r="D180" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H180">
         <v>0.617</v>
       </c>
@@ -5616,6 +6217,9 @@
       <c r="C181" t="s">
         <v>24</v>
       </c>
+      <c r="D181" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H181">
         <v>0.627</v>
       </c>
@@ -5648,6 +6252,9 @@
       <c r="C182" t="s">
         <v>25</v>
       </c>
+      <c r="D182" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J182">
         <v>0.443</v>
       </c>
@@ -5677,6 +6284,9 @@
       <c r="C183" t="s">
         <v>27</v>
       </c>
+      <c r="D183" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H183">
         <v>0.5669999999999999</v>
       </c>
@@ -5709,6 +6319,9 @@
       <c r="C184" t="s">
         <v>28</v>
       </c>
+      <c r="D184" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H184">
         <v>0.721</v>
       </c>
@@ -5732,6 +6345,9 @@
       <c r="C185" t="s">
         <v>29</v>
       </c>
+      <c r="D185" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O185">
         <v>0.908</v>
       </c>
@@ -5746,6 +6362,9 @@
       <c r="C186" t="s">
         <v>30</v>
       </c>
+      <c r="D186" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H186">
         <v>0.586</v>
       </c>
@@ -5778,6 +6397,9 @@
       <c r="C187" t="s">
         <v>31</v>
       </c>
+      <c r="D187" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O187">
         <v>0.883</v>
       </c>
@@ -5792,6 +6414,9 @@
       <c r="C188" t="s">
         <v>33</v>
       </c>
+      <c r="D188" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H188">
         <v>0.578</v>
       </c>
@@ -5824,6 +6449,9 @@
       <c r="C189" t="s">
         <v>34</v>
       </c>
+      <c r="D189" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H189">
         <v>0.594</v>
       </c>
@@ -5856,6 +6484,9 @@
       <c r="C190" t="s">
         <v>19</v>
       </c>
+      <c r="D190" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H190">
         <v>0.759</v>
       </c>
@@ -5888,6 +6519,9 @@
       <c r="C191" t="s">
         <v>20</v>
       </c>
+      <c r="D191" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O191">
         <v>0.986</v>
       </c>
@@ -5917,6 +6551,9 @@
       <c r="C192" t="s">
         <v>21</v>
       </c>
+      <c r="D192" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H192">
         <v>0.744</v>
       </c>
@@ -5952,6 +6589,9 @@
       <c r="C193" t="s">
         <v>22</v>
       </c>
+      <c r="D193" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O193">
         <v>0.713</v>
       </c>
@@ -5981,6 +6621,9 @@
       <c r="C194" t="s">
         <v>23</v>
       </c>
+      <c r="D194" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H194">
         <v>0.542</v>
       </c>
@@ -5995,6 +6638,9 @@
       <c r="C195" t="s">
         <v>24</v>
       </c>
+      <c r="D195" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H195">
         <v>0.626</v>
       </c>
@@ -6045,6 +6691,9 @@
       <c r="C196" t="s">
         <v>25</v>
       </c>
+      <c r="D196" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J196">
         <v>0.424</v>
       </c>
@@ -6089,6 +6738,9 @@
       <c r="C197" t="s">
         <v>26</v>
       </c>
+      <c r="D197" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O197">
         <v>0.714</v>
       </c>
@@ -6118,6 +6770,9 @@
       <c r="C198" t="s">
         <v>27</v>
       </c>
+      <c r="D198" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H198">
         <v>0.913</v>
       </c>
@@ -6168,6 +6823,9 @@
       <c r="C199" t="s">
         <v>28</v>
       </c>
+      <c r="D199" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H199">
         <v>0.67</v>
       </c>
@@ -6209,6 +6867,9 @@
       <c r="C200" t="s">
         <v>29</v>
       </c>
+      <c r="D200" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O200">
         <v>0.8179999999999999</v>
       </c>
@@ -6235,6 +6896,9 @@
       <c r="C201" t="s">
         <v>30</v>
       </c>
+      <c r="D201" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H201">
         <v>0.7</v>
       </c>
@@ -6285,6 +6949,9 @@
       <c r="C202" t="s">
         <v>31</v>
       </c>
+      <c r="D202" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O202">
         <v>0.774</v>
       </c>
@@ -6299,6 +6966,9 @@
       <c r="C203" t="s">
         <v>32</v>
       </c>
+      <c r="D203" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H203">
         <v>0.578</v>
       </c>
@@ -6331,6 +7001,9 @@
       <c r="C204" t="s">
         <v>34</v>
       </c>
+      <c r="D204" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="H204">
         <v>0.631</v>
       </c>
@@ -6381,6 +7054,9 @@
       <c r="C205" t="s">
         <v>35</v>
       </c>
+      <c r="D205" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O205">
         <v>0.989</v>
       </c>
@@ -6401,6 +7077,9 @@
       <c r="C206" t="s">
         <v>19</v>
       </c>
+      <c r="D206" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H206">
         <v>0.721</v>
       </c>
@@ -6433,6 +7112,9 @@
       <c r="C207" t="s">
         <v>20</v>
       </c>
+      <c r="D207" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O207">
         <v>0.859</v>
       </c>
@@ -6462,6 +7144,9 @@
       <c r="C208" t="s">
         <v>21</v>
       </c>
+      <c r="D208" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H208">
         <v>0.76</v>
       </c>
@@ -6497,6 +7182,9 @@
       <c r="C209" t="s">
         <v>22</v>
       </c>
+      <c r="D209" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O209">
         <v>0.556</v>
       </c>
@@ -6526,6 +7214,9 @@
       <c r="C210" t="s">
         <v>23</v>
       </c>
+      <c r="D210" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H210">
         <v>0.8129999999999999</v>
       </c>
@@ -6540,6 +7231,9 @@
       <c r="C211" t="s">
         <v>24</v>
       </c>
+      <c r="D211" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H211">
         <v>0.929</v>
       </c>
@@ -6590,6 +7284,9 @@
       <c r="C212" t="s">
         <v>25</v>
       </c>
+      <c r="D212" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J212">
         <v>0.457</v>
       </c>
@@ -6634,6 +7331,9 @@
       <c r="C213" t="s">
         <v>26</v>
       </c>
+      <c r="D213" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O213">
         <v>0.548</v>
       </c>
@@ -6663,6 +7363,9 @@
       <c r="C214" t="s">
         <v>27</v>
       </c>
+      <c r="D214" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H214">
         <v>0.603</v>
       </c>
@@ -6713,6 +7416,9 @@
       <c r="C215" t="s">
         <v>28</v>
       </c>
+      <c r="D215" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H215">
         <v>0.525</v>
       </c>
@@ -6754,6 +7460,9 @@
       <c r="C216" t="s">
         <v>29</v>
       </c>
+      <c r="D216" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O216">
         <v>0.963</v>
       </c>
@@ -6780,6 +7489,9 @@
       <c r="C217" t="s">
         <v>30</v>
       </c>
+      <c r="D217" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H217">
         <v>0.79</v>
       </c>
@@ -6830,6 +7542,9 @@
       <c r="C218" t="s">
         <v>31</v>
       </c>
+      <c r="D218" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="O218">
         <v>0.944</v>
       </c>
@@ -6844,6 +7559,9 @@
       <c r="C219" t="s">
         <v>32</v>
       </c>
+      <c r="D219" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H219">
         <v>0.594</v>
       </c>
@@ -6876,6 +7594,9 @@
       <c r="C220" t="s">
         <v>33</v>
       </c>
+      <c r="D220" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H220">
         <v>0.631</v>
       </c>
@@ -6926,6 +7647,9 @@
       <c r="C221" t="s">
         <v>35</v>
       </c>
+      <c r="D221" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="O221">
         <v>0.824</v>
       </c>
@@ -6946,6 +7670,9 @@
       <c r="C222" t="s">
         <v>19</v>
       </c>
+      <c r="D222" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="O222">
         <v>0.992</v>
       </c>
@@ -6966,6 +7693,9 @@
       <c r="C223" t="s">
         <v>20</v>
       </c>
+      <c r="D223" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O223">
         <v>0.995</v>
       </c>
@@ -6986,6 +7716,9 @@
       <c r="C224" t="s">
         <v>22</v>
       </c>
+      <c r="D224" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O224">
         <v>0.722</v>
       </c>
@@ -7006,6 +7739,9 @@
       <c r="C225" t="s">
         <v>24</v>
       </c>
+      <c r="D225" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O225">
         <v>0.831</v>
       </c>
@@ -7026,6 +7762,9 @@
       <c r="C226" t="s">
         <v>25</v>
       </c>
+      <c r="D226" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O226">
         <v>0.453</v>
       </c>
@@ -7046,6 +7785,9 @@
       <c r="C227" t="s">
         <v>26</v>
       </c>
+      <c r="D227" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O227">
         <v>0.723</v>
       </c>
@@ -7066,6 +7808,9 @@
       <c r="C228" t="s">
         <v>27</v>
       </c>
+      <c r="D228" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O228">
         <v>0.981</v>
       </c>
@@ -7086,6 +7831,9 @@
       <c r="C229" t="s">
         <v>28</v>
       </c>
+      <c r="D229" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O229">
         <v>0.802</v>
       </c>
@@ -7106,6 +7854,9 @@
       <c r="C230" t="s">
         <v>29</v>
       </c>
+      <c r="D230" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O230">
         <v>0.827</v>
       </c>
@@ -7126,6 +7877,9 @@
       <c r="C231" t="s">
         <v>30</v>
       </c>
+      <c r="D231" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O231">
         <v>0.8120000000000001</v>
       </c>
@@ -7146,6 +7900,9 @@
       <c r="C232" t="s">
         <v>33</v>
       </c>
+      <c r="D232" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O232">
         <v>0.989</v>
       </c>
@@ -7166,6 +7923,9 @@
       <c r="C233" t="s">
         <v>34</v>
       </c>
+      <c r="D233" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="O233">
         <v>0.824</v>
       </c>
@@ -7177,6 +7937,240 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>